--- a/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
+++ b/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,832 +512,1130 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.48</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6021</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>001358</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>宝盈祥泰混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>21.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000398</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>29.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业上证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010078</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010079</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519162</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华增怡债券A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519163</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华增怡债券C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007575</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519162</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>新华增怡债券A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519163</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新华增怡债券C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001412</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>29.12</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10.60</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007575</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>宝盈祥泰混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>21.77</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008033</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中加科盈混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008034</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中加科盈混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002331</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰康安泰回报混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002112</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>29.12</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008682</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002561</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东吴安鑫量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>29.93</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>97.19</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>97.75</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009448</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009449</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010078</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010079</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1337,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,15 +1666,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009448</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009449</t>
+          <t>165516</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合C</t>
+          <t>信诚周期轮动混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4928</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>009601</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>招商科技动力3个月滚动持有股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>14.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>165516</t>
+          <t>217001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信诚周期轮动混合(LOF)</t>
+          <t>招商安泰混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70.18</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002456</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商安元灵活配置混合A</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002457</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商安元灵活配置混合C</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006009</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国融融银灵活配置混合A</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006010</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国融融银灵活配置混合C</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006231</t>
+          <t>206013</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合A</t>
+          <t>鹏华宏观灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006232</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合C</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>001403</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>招商国企改革主题混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>001718</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>工银瑞信物流产业股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1770,25 +2228,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000058</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国联安安泰灵活配置混合</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>30.99</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>206013</t>
+          <t>003182</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华宏观灵活配置混合</t>
+          <t>华富弘鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>34.40</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>217001</t>
+          <t>002628</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商安泰混合</t>
+          <t>招商安博灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>68.80</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010043</t>
+          <t>001756</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天弘安康颐和混合A</t>
+          <t>嘉实策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29.30</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010044</t>
+          <t>009707</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天弘安康颐和混合C</t>
+          <t>工银瑞信新兴制造混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>29.30</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007381</t>
+          <t>000058</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国融融信消费严选混合A</t>
+          <t>国联安安泰灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007382</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国融融信消费严选混合C</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>510890</t>
+          <t>002561</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>兴业上证红利低波动ETF</t>
+          <t>东吴安鑫量化灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>96.60</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>30.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>001304</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>建信鑫安回报灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
+          <t>59.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001304</t>
+          <t>009448</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>建信鑫安回报灵活配置混合</t>
+          <t>泰康申润一年持有期混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>59.32</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2078,25 +2646,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001403</t>
+          <t>161722</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>招商国企改革主题混合</t>
+          <t>招商丰泰灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>007381</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>国融融信消费严选混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>97.42</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>002456</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>招商安元灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>010043</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>天弘安康颐和混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
+          <t>29.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>009602</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>招商科技动力3个月滚动持有股票C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001718</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>工银瑞信物流产业股票</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>81.30</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>001756</t>
+          <t>002457</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>嘉实策略优选灵活配置混合</t>
+          <t>招商安元灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>009708</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>工银瑞信新兴制造混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11.31</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002137</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>诺安利鑫灵活配置混合</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>63.68</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8</v>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>003183</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>华富弘鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>79.04</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>161722</t>
+          <t>002137</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>招商丰泰灵活配置混合(LOF)</t>
+          <t>诺安利鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>23.44</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2414,25 +3102,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>002561</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东吴安鑫量化灵活配置混合</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>30.36</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2442,25 +3140,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>002628</t>
+          <t>002629</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>招商安博灵活配置混合A</t>
+          <t>招商安博灵活配置混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>50.15</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>3.49</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>002629</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>招商安博灵活配置混合C</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>50.15</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>4</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>003182</t>
+          <t>510890</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华富弘鑫灵活配置混合A</t>
+          <t>兴业上证红利低波动ETF</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>003183</t>
+          <t>010044</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华富弘鑫灵活配置混合C</t>
+          <t>天弘安康颐和混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
+          <t>29.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2554,26 +3292,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>006231</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>国融融君灵活配置混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>8</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2582,26 +3330,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>003299</t>
+          <t>009928</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票C</t>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>8</v>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>009449</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>泰康申润一年持有期混合C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>009707</t>
+          <t>007382</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合A</t>
+          <t>国融融信消费严选混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>10</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>009708</t>
+          <t>006009</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合C</t>
+          <t>国融融银灵活配置混合A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>10</v>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>009601</t>
+          <t>006010</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>招商科技动力3个月滚动持有股票A</t>
+          <t>国融融银灵活配置混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>82.97</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2750,26 +3558,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>009602</t>
+          <t>006232</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>招商科技动力3个月滚动持有股票C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>82.97</t>
-        </is>
-      </c>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>9</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
+++ b/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3566,7 +3567,6 @@
           <t>国融融君灵活配置混合C</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>84.76</t>
@@ -3581,6 +3581,1658 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>56.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003912</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004081</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安鑫乾混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003913</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004082</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国联安鑫乾混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
+++ b/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5239,4 +5240,1616 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3439</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004100</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安益增强混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
+++ b/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6852,4 +6853,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
+++ b/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6861,7 +6862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6872,17 +6873,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6892,14 +6913,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.7</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6908,14 +6951,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6924,14 +6989,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.68</v>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6940,13 +7027,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
+++ b/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7716,7 +7717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7727,17 +7728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7747,14 +7768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -7763,14 +7806,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.7</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7779,14 +7844,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.9</v>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -7795,14 +7882,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.68</v>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5300</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -7811,13 +7920,1231 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3648</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
+++ b/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9027,7 +9028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9038,17 +9039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9058,14 +9079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.32</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>178.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -9074,13 +9117,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0462</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9090,14 +9155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.7</v>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5416</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9106,14 +9193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.9</v>
+          <t>014874</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -9122,14 +9231,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.68</v>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -9138,13 +9269,1323 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013726</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002461</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银珍利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002618</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002054</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银新财富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002057</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014875</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002462</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银珍利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002728</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华富益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002056</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银新财富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>51.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>51.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002619</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002729</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002058</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013727</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
+++ b/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>8.66</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>8.32</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>4.68</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.01</v>
       </c>
     </row>
@@ -600,6 +617,2074 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7081</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9369</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014874</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013726</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013934</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江红利回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012147</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国大盘核心资产混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>52.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014875</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>37.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002462</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银珍利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002461</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银珍利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013935</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长江红利回报混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013727</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>55.69</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2023,7 +4108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3333,7 +5418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4187,7 +6272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5799,7 +7884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7451,7 +9536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9400,7 +11485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
+++ b/数据整理/stocks/A股/上证主板/601006-大秦铁路.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>8.9</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>8.66</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>8.32</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>4.68</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1224 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6021</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001358</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业上证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010078</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010079</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时恒荣一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519162</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华增怡债券A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519163</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华增怡债券C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007575</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1828,2266 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6569</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4765</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7786</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3620</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>970008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011849</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得量化价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012147</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国大盘核心资产混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010839</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达瑞安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009689</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011086</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达瑞康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011087</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达瑞康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009690</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010840</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达瑞安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>970006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2684,7 +6155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4108,7 +7579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5418,7 +8889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6272,7 +9743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7884,7 +11355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9536,7 +13007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11483,1198 +14954,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>100032</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6021</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008682</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>40.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6021</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2606</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2365</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000398</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2342</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001358</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈祥泰混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1875</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1716</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.60</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1442</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002331</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰康安泰回报混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0919</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>97.19</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0770</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008033</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中加科盈混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0598</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009448</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0535</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001412</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>29.12</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010078</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0317</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002561</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东吴安鑫量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>29.93</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>97.75</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008034</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中加科盈混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002112</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>29.12</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009449</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>010079</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>博时恒荣一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>28.79</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>519162</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>新华增怡债券A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>519163</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>新华增怡债券C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007575</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>宝盈祥泰混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>21.77</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>